--- a/formulas/last-quarter-balance.xlsx
+++ b/formulas/last-quarter-balance.xlsx
@@ -937,10 +937,12 @@
         <v>10200</v>
       </c>
       <c r="C10" s="13">
-        <v>620</v>
+        <f t="shared" ref="C10:D10" si="1">SUM(C5:C9)</f>
+        <v>7700</v>
       </c>
       <c r="D10" s="13">
-        <v>1302</v>
+        <f t="shared" si="1"/>
+        <v>13620</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>0</v>
@@ -964,11 +966,11 @@
       </c>
       <c r="C12" s="15">
         <f>C2-C10</f>
-        <v>9380</v>
+        <v>2300</v>
       </c>
       <c r="D12" s="15">
         <f>D2-D10</f>
-        <v>19698</v>
+        <v>7380</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>0</v>
